--- a/dataanalysis/data/predictions/1000/07170948_1742.xlsx
+++ b/dataanalysis/data/predictions/1000/07170948_1742.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="116">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-17</t>
   </si>
   <si>
@@ -359,9 +362,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -719,13 +719,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:AB50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,19 +807,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>3.41</v>
@@ -837,7 +840,7 @@
         <v>51175.75</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -857,8 +860,23 @@
       <c r="P2">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="Q2">
+        <v>1.61</v>
+      </c>
+      <c r="R2">
+        <v>5.12</v>
+      </c>
+      <c r="S2">
+        <v>-0.78</v>
+      </c>
       <c r="V2" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -866,22 +884,25 @@
       <c r="Z2">
         <v>6.19804573059082</v>
       </c>
-      <c r="AA2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-1.24</v>
@@ -899,7 +920,7 @@
         <v>22117.27</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -919,8 +940,23 @@
       <c r="P3">
         <v>-0.21</v>
       </c>
+      <c r="Q3">
+        <v>-0.98</v>
+      </c>
+      <c r="R3">
+        <v>22.86</v>
+      </c>
+      <c r="S3">
+        <v>2.79</v>
+      </c>
       <c r="V3" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -928,22 +964,25 @@
       <c r="Z3">
         <v>3.079521894454956</v>
       </c>
-      <c r="AA3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300066</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>8.4</v>
@@ -961,7 +1000,7 @@
         <v>48356.53</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -981,8 +1020,23 @@
       <c r="P4">
         <v>0.95</v>
       </c>
+      <c r="Q4">
+        <v>3.33</v>
+      </c>
+      <c r="R4">
+        <v>6.84</v>
+      </c>
+      <c r="S4">
+        <v>6.05</v>
+      </c>
       <c r="V4" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -990,22 +1044,25 @@
       <c r="Z4">
         <v>-0.5050346255302429</v>
       </c>
-      <c r="AA4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300130</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>1.95</v>
@@ -1023,7 +1080,7 @@
         <v>43939.49</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5">
         <v>23</v>
@@ -1043,8 +1100,23 @@
       <c r="P5">
         <v>0.28</v>
       </c>
+      <c r="Q5">
+        <v>0.21</v>
+      </c>
+      <c r="R5">
+        <v>33.49</v>
+      </c>
+      <c r="S5">
+        <v>1.58</v>
+      </c>
       <c r="V5" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1052,22 +1124,25 @@
       <c r="Z5">
         <v>2.462722539901733</v>
       </c>
-      <c r="AA5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300180</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>1.83</v>
@@ -1085,7 +1160,7 @@
         <v>35205.26</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K6">
         <v>22</v>
@@ -1105,8 +1180,23 @@
       <c r="P6">
         <v>-0.01</v>
       </c>
+      <c r="Q6">
+        <v>-2.45</v>
+      </c>
+      <c r="R6">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="S6">
+        <v>-0.21</v>
+      </c>
       <c r="V6" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1114,22 +1204,25 @@
       <c r="Z6">
         <v>1.895771265029907</v>
       </c>
-      <c r="AA6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300195</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>-6.73</v>
@@ -1147,7 +1240,7 @@
         <v>23294.51</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1167,8 +1260,23 @@
       <c r="P7">
         <v>-0.98</v>
       </c>
+      <c r="Q7">
+        <v>-3.2</v>
+      </c>
+      <c r="R7">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="S7">
+        <v>0.6</v>
+      </c>
       <c r="V7" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1176,22 +1284,25 @@
       <c r="Z7">
         <v>5.760329246520996</v>
       </c>
-      <c r="AA7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300199</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-0.77</v>
@@ -1209,7 +1320,7 @@
         <v>47180.6</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8">
         <v>12</v>
@@ -1229,8 +1340,23 @@
       <c r="P8">
         <v>-0.54</v>
       </c>
+      <c r="Q8">
+        <v>-1.73</v>
+      </c>
+      <c r="R8">
+        <v>19.6</v>
+      </c>
+      <c r="S8">
+        <v>1.66</v>
+      </c>
       <c r="V8" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1238,22 +1364,25 @@
       <c r="Z8">
         <v>3.053192615509033</v>
       </c>
-      <c r="AA8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300226</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>2.1</v>
@@ -1271,7 +1400,7 @@
         <v>69434.14999999999</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1291,8 +1420,23 @@
       <c r="P9">
         <v>0.65</v>
       </c>
+      <c r="Q9">
+        <v>-4.54</v>
+      </c>
+      <c r="R9">
+        <v>30.3</v>
+      </c>
+      <c r="S9">
+        <v>0.4</v>
+      </c>
       <c r="V9" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1300,22 +1444,25 @@
       <c r="Z9">
         <v>2.990594625473022</v>
       </c>
-      <c r="AA9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300348</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0.46</v>
@@ -1333,7 +1480,7 @@
         <v>51486.83</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10">
         <v>8</v>
@@ -1353,8 +1500,23 @@
       <c r="P10">
         <v>-0.16</v>
       </c>
+      <c r="Q10">
+        <v>-0.05</v>
+      </c>
+      <c r="R10">
+        <v>19.8</v>
+      </c>
+      <c r="S10">
+        <v>1.18</v>
+      </c>
       <c r="V10" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1362,22 +1524,25 @@
       <c r="Z10">
         <v>2.064334869384766</v>
       </c>
-      <c r="AA10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300414</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>-0.3</v>
@@ -1395,7 +1560,7 @@
         <v>6984.82</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -1415,8 +1580,23 @@
       <c r="P11">
         <v>-0.03</v>
       </c>
+      <c r="Q11">
+        <v>1.06</v>
+      </c>
+      <c r="R11">
+        <v>13.57</v>
+      </c>
+      <c r="S11">
+        <v>3.75</v>
+      </c>
       <c r="V11" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1424,22 +1604,25 @@
       <c r="Z11">
         <v>2.879482507705688</v>
       </c>
-      <c r="AA11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300436</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>-4.7</v>
@@ -1457,7 +1640,7 @@
         <v>57731.37</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -1477,8 +1660,23 @@
       <c r="P12">
         <v>0.09</v>
       </c>
+      <c r="Q12">
+        <v>-1.91</v>
+      </c>
+      <c r="R12">
+        <v>71.2</v>
+      </c>
+      <c r="S12">
+        <v>-0.21</v>
+      </c>
       <c r="V12" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1486,22 +1684,25 @@
       <c r="Z12">
         <v>2.990049362182617</v>
       </c>
-      <c r="AA12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300469</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>2.98</v>
@@ -1519,7 +1720,7 @@
         <v>33475.2</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1539,8 +1740,23 @@
       <c r="P13">
         <v>0.29</v>
       </c>
+      <c r="Q13">
+        <v>-0.8</v>
+      </c>
+      <c r="R13">
+        <v>47.39</v>
+      </c>
+      <c r="S13">
+        <v>1.65</v>
+      </c>
       <c r="V13" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1548,22 +1764,25 @@
       <c r="Z13">
         <v>1.423296093940735</v>
       </c>
-      <c r="AA13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300522</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>2.4</v>
@@ -1581,7 +1800,7 @@
         <v>19169.96</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1601,8 +1820,23 @@
       <c r="P14">
         <v>-0.09</v>
       </c>
+      <c r="Q14">
+        <v>-0.89</v>
+      </c>
+      <c r="R14">
+        <v>17.57</v>
+      </c>
+      <c r="S14">
+        <v>5.72</v>
+      </c>
       <c r="V14" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1610,22 +1844,25 @@
       <c r="Z14">
         <v>6.990524291992188</v>
       </c>
-      <c r="AA14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300527</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>-2.29</v>
@@ -1643,7 +1880,7 @@
         <v>22573.76</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15">
         <v>13</v>
@@ -1663,8 +1900,23 @@
       <c r="P15">
         <v>-0.23</v>
       </c>
+      <c r="Q15">
+        <v>-0.98</v>
+      </c>
+      <c r="R15">
+        <v>11.37</v>
+      </c>
+      <c r="S15">
+        <v>2.62</v>
+      </c>
       <c r="V15" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1672,22 +1924,25 @@
       <c r="Z15">
         <v>6.176313400268555</v>
       </c>
-      <c r="AA15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300533</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>0.53</v>
@@ -1705,7 +1960,7 @@
         <v>21582.1</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16">
         <v>17</v>
@@ -1725,8 +1980,23 @@
       <c r="P16">
         <v>0.19</v>
       </c>
+      <c r="Q16">
+        <v>-4.42</v>
+      </c>
+      <c r="R16">
+        <v>38.01</v>
+      </c>
+      <c r="S16">
+        <v>0.34</v>
+      </c>
       <c r="V16" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1734,22 +2004,25 @@
       <c r="Z16">
         <v>-0.1788229048252106</v>
       </c>
-      <c r="AA16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300537</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>1.87</v>
@@ -1767,7 +2040,7 @@
         <v>10296.94</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17">
         <v>14</v>
@@ -1787,8 +2060,23 @@
       <c r="P17">
         <v>0.27</v>
       </c>
+      <c r="Q17">
+        <v>-1.17</v>
+      </c>
+      <c r="R17">
+        <v>25.89</v>
+      </c>
+      <c r="S17">
+        <v>3.39</v>
+      </c>
       <c r="V17" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1796,22 +2084,25 @@
       <c r="Z17">
         <v>2.197213888168335</v>
       </c>
-      <c r="AA17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300541</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>-0.65</v>
@@ -1829,7 +2120,7 @@
         <v>13898.78</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1849,8 +2140,23 @@
       <c r="P18">
         <v>-0.02</v>
       </c>
+      <c r="Q18">
+        <v>-3.36</v>
+      </c>
+      <c r="R18">
+        <v>16.68</v>
+      </c>
+      <c r="S18">
+        <v>-1.01</v>
+      </c>
       <c r="V18" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1858,22 +2164,25 @@
       <c r="Z18">
         <v>4.075942039489746</v>
       </c>
-      <c r="AA18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300548</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>-1.79</v>
@@ -1891,7 +2200,7 @@
         <v>86449.39999999999</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1911,8 +2220,23 @@
       <c r="P19">
         <v>-0.25</v>
       </c>
+      <c r="Q19">
+        <v>0.26</v>
+      </c>
+      <c r="R19">
+        <v>90.69</v>
+      </c>
+      <c r="S19">
+        <v>9.380000000000001</v>
+      </c>
       <c r="V19" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -1920,22 +2244,25 @@
       <c r="Z19">
         <v>0.09796533733606339</v>
       </c>
-      <c r="AA19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300551</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>0.17</v>
@@ -1953,7 +2280,7 @@
         <v>12205.44</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1973,8 +2300,23 @@
       <c r="P20">
         <v>0.05</v>
       </c>
+      <c r="Q20">
+        <v>-1.68</v>
+      </c>
+      <c r="R20">
+        <v>12</v>
+      </c>
+      <c r="S20">
+        <v>-0.5</v>
+      </c>
       <c r="V20" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -1982,22 +2324,25 @@
       <c r="Z20">
         <v>6.340534210205078</v>
       </c>
-      <c r="AA20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300581</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>1.83</v>
@@ -2015,7 +2360,7 @@
         <v>20670.68</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2035,8 +2380,23 @@
       <c r="P21">
         <v>0.16</v>
       </c>
+      <c r="Q21">
+        <v>0.83</v>
+      </c>
+      <c r="R21">
+        <v>21.39</v>
+      </c>
+      <c r="S21">
+        <v>13.05</v>
+      </c>
       <c r="V21" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2044,22 +2404,25 @@
       <c r="Z21">
         <v>1.416864991188049</v>
       </c>
-      <c r="AA21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300591</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>4.02</v>
@@ -2077,7 +2440,7 @@
         <v>40877.46</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22">
         <v>18</v>
@@ -2097,8 +2460,23 @@
       <c r="P22">
         <v>0.43</v>
       </c>
+      <c r="Q22">
+        <v>-2.48</v>
+      </c>
+      <c r="R22">
+        <v>12.85</v>
+      </c>
+      <c r="S22">
+        <v>3.38</v>
+      </c>
       <c r="V22" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2106,22 +2484,25 @@
       <c r="Z22">
         <v>0.4521629214286804</v>
       </c>
-      <c r="AA22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300600</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>1.24</v>
@@ -2139,7 +2520,7 @@
         <v>13745.93</v>
       </c>
       <c r="J23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K23">
         <v>15</v>
@@ -2159,8 +2540,23 @@
       <c r="P23">
         <v>0.08</v>
       </c>
+      <c r="Q23">
+        <v>-4.16</v>
+      </c>
+      <c r="R23">
+        <v>16.71</v>
+      </c>
+      <c r="S23">
+        <v>2.08</v>
+      </c>
       <c r="V23" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2168,22 +2564,25 @@
       <c r="Z23">
         <v>2.636388063430786</v>
       </c>
-      <c r="AA23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300631</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>-0.93</v>
@@ -2201,7 +2600,7 @@
         <v>10499.79</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -2221,8 +2620,23 @@
       <c r="P24">
         <v>-0.06</v>
       </c>
+      <c r="Q24">
+        <v>20.01</v>
+      </c>
+      <c r="R24">
+        <v>33.65</v>
+      </c>
+      <c r="S24">
+        <v>21.3</v>
+      </c>
       <c r="V24" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2230,22 +2644,25 @@
       <c r="Z24">
         <v>0.7059276103973389</v>
       </c>
-      <c r="AA24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300703</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>-0.19</v>
@@ -2263,7 +2680,7 @@
         <v>11292.26</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25">
         <v>5</v>
@@ -2283,8 +2700,23 @@
       <c r="P25">
         <v>0.05</v>
       </c>
+      <c r="Q25">
+        <v>-1.89</v>
+      </c>
+      <c r="R25">
+        <v>26.1</v>
+      </c>
+      <c r="S25">
+        <v>-0.15</v>
+      </c>
       <c r="V25" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2292,22 +2724,25 @@
       <c r="Z25">
         <v>2.848591566085815</v>
       </c>
-      <c r="AA25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300748</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>-2.97</v>
@@ -2325,7 +2760,7 @@
         <v>45554.32</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -2345,8 +2780,23 @@
       <c r="P26">
         <v>-0.15</v>
       </c>
+      <c r="Q26">
+        <v>3.97</v>
+      </c>
+      <c r="R26">
+        <v>27.66</v>
+      </c>
+      <c r="S26">
+        <v>8.73</v>
+      </c>
       <c r="V26" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2354,22 +2804,25 @@
       <c r="Z26">
         <v>1.270647168159485</v>
       </c>
-      <c r="AA26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300803</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>0.4</v>
@@ -2387,7 +2840,7 @@
         <v>73640.53999999999</v>
       </c>
       <c r="J27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27">
         <v>15</v>
@@ -2407,8 +2860,23 @@
       <c r="P27">
         <v>0.05</v>
       </c>
+      <c r="Q27">
+        <v>-1.13</v>
+      </c>
+      <c r="R27">
+        <v>88.5</v>
+      </c>
+      <c r="S27">
+        <v>4.31</v>
+      </c>
       <c r="V27" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2416,22 +2884,25 @@
       <c r="Z27">
         <v>1.344419121742249</v>
       </c>
-      <c r="AA27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300839</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2449,7 +2920,7 @@
         <v>24461.1</v>
       </c>
       <c r="J28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2469,8 +2940,23 @@
       <c r="P28">
         <v>0.37</v>
       </c>
+      <c r="Q28">
+        <v>-2.93</v>
+      </c>
+      <c r="R28">
+        <v>14.8</v>
+      </c>
+      <c r="S28">
+        <v>-3.27</v>
+      </c>
       <c r="V28" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2478,22 +2964,25 @@
       <c r="Z28">
         <v>1.617401838302612</v>
       </c>
-      <c r="AA28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300872</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>-0.04</v>
@@ -2511,7 +3000,7 @@
         <v>42664.1</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K29">
         <v>24</v>
@@ -2531,8 +3020,23 @@
       <c r="P29">
         <v>-0.22</v>
       </c>
+      <c r="Q29">
+        <v>-2.11</v>
+      </c>
+      <c r="R29">
+        <v>24.86</v>
+      </c>
+      <c r="S29">
+        <v>-1.54</v>
+      </c>
       <c r="V29" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2540,22 +3044,25 @@
       <c r="Z29">
         <v>2.855818748474121</v>
       </c>
-      <c r="AA29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300940</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>11.24</v>
@@ -2573,7 +3080,7 @@
         <v>30824.39</v>
       </c>
       <c r="J30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2593,8 +3100,23 @@
       <c r="P30">
         <v>-0.63</v>
       </c>
+      <c r="Q30">
+        <v>-2.07</v>
+      </c>
+      <c r="R30">
+        <v>27.9</v>
+      </c>
+      <c r="S30">
+        <v>-1.41</v>
+      </c>
       <c r="V30" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2602,22 +3124,25 @@
       <c r="Z30">
         <v>2.948935747146606</v>
       </c>
-      <c r="AA30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300950</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>2.77</v>
@@ -2635,7 +3160,7 @@
         <v>45310.32</v>
       </c>
       <c r="J31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2655,8 +3180,23 @@
       <c r="P31">
         <v>-1.76</v>
       </c>
+      <c r="Q31">
+        <v>-0.44</v>
+      </c>
+      <c r="R31">
+        <v>34.96</v>
+      </c>
+      <c r="S31">
+        <v>-3.9</v>
+      </c>
       <c r="V31" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2664,22 +3204,25 @@
       <c r="Z31">
         <v>4.004369258880615</v>
       </c>
-      <c r="AA31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>301012</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>7.87</v>
@@ -2697,7 +3240,7 @@
         <v>74267.74000000001</v>
       </c>
       <c r="J32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2717,8 +3260,23 @@
       <c r="P32">
         <v>-3.79</v>
       </c>
+      <c r="Q32">
+        <v>-7.76</v>
+      </c>
+      <c r="R32">
+        <v>25.02</v>
+      </c>
+      <c r="S32">
+        <v>0.24</v>
+      </c>
       <c r="V32" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -2726,22 +3284,25 @@
       <c r="Z32">
         <v>7.071408271789551</v>
       </c>
-      <c r="AA32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>301120</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>-0.55</v>
@@ -2759,7 +3320,7 @@
         <v>5061.05</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -2779,8 +3340,23 @@
       <c r="P33">
         <v>-0.12</v>
       </c>
+      <c r="Q33">
+        <v>-1.11</v>
+      </c>
+      <c r="R33">
+        <v>12.6</v>
+      </c>
+      <c r="S33">
+        <v>0.24</v>
+      </c>
       <c r="V33" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2788,22 +3364,25 @@
       <c r="Z33">
         <v>5.958288669586182</v>
       </c>
-      <c r="AA33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>301141</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-1.35</v>
@@ -2821,7 +3400,7 @@
         <v>17299.26</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K34">
         <v>15</v>
@@ -2841,8 +3420,23 @@
       <c r="P34">
         <v>-0.45</v>
       </c>
+      <c r="Q34">
+        <v>1.93</v>
+      </c>
+      <c r="R34">
+        <v>77.7</v>
+      </c>
+      <c r="S34">
+        <v>11.64</v>
+      </c>
       <c r="V34" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2850,22 +3444,25 @@
       <c r="Z34">
         <v>2.599488019943237</v>
       </c>
-      <c r="AA34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>301165</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>0.87</v>
@@ -2883,7 +3480,7 @@
         <v>24047.4</v>
       </c>
       <c r="J35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2903,8 +3500,23 @@
       <c r="P35">
         <v>-0.1</v>
       </c>
+      <c r="Q35">
+        <v>-1.31</v>
+      </c>
+      <c r="R35">
+        <v>65.5</v>
+      </c>
+      <c r="S35">
+        <v>2.71</v>
+      </c>
       <c r="V35" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>1</v>
@@ -2912,22 +3524,25 @@
       <c r="Z35">
         <v>5.324131011962891</v>
       </c>
-      <c r="AA35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>301176</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>2.08</v>
@@ -2945,7 +3560,7 @@
         <v>13784.94</v>
       </c>
       <c r="J36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K36">
         <v>20</v>
@@ -2965,8 +3580,23 @@
       <c r="P36">
         <v>0.2</v>
       </c>
+      <c r="Q36">
+        <v>-4.75</v>
+      </c>
+      <c r="R36">
+        <v>35.8</v>
+      </c>
+      <c r="S36">
+        <v>5.92</v>
+      </c>
       <c r="V36" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -2974,22 +3604,25 @@
       <c r="Z36">
         <v>1.432106733322144</v>
       </c>
-      <c r="AA36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>301183</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>1.83</v>
@@ -3007,7 +3640,7 @@
         <v>48430.84</v>
       </c>
       <c r="J37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3027,8 +3660,23 @@
       <c r="P37">
         <v>-0.01</v>
       </c>
+      <c r="Q37">
+        <v>-2.58</v>
+      </c>
+      <c r="R37">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="S37">
+        <v>0.75</v>
+      </c>
       <c r="V37" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3036,22 +3684,25 @@
       <c r="Z37">
         <v>4.378111839294434</v>
       </c>
-      <c r="AA37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>301217</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>0.16</v>
@@ -3069,7 +3720,7 @@
         <v>19136.97</v>
       </c>
       <c r="J38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K38">
         <v>9</v>
@@ -3089,8 +3740,23 @@
       <c r="P38">
         <v>-0.28</v>
       </c>
+      <c r="Q38">
+        <v>3.16</v>
+      </c>
+      <c r="R38">
+        <v>23.25</v>
+      </c>
+      <c r="S38">
+        <v>26.15</v>
+      </c>
       <c r="V38" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3098,22 +3764,25 @@
       <c r="Z38">
         <v>2.039639234542847</v>
       </c>
-      <c r="AA38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>301357</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>1.45</v>
@@ -3131,7 +3800,7 @@
         <v>24783.5</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -3151,8 +3820,23 @@
       <c r="P39">
         <v>-0.15</v>
       </c>
+      <c r="Q39">
+        <v>-2.18</v>
+      </c>
+      <c r="R39">
+        <v>87.8</v>
+      </c>
+      <c r="S39">
+        <v>7.22</v>
+      </c>
       <c r="V39" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3160,22 +3844,25 @@
       <c r="Z39">
         <v>3.374166250228882</v>
       </c>
-      <c r="AA39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>301377</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>3.07</v>
@@ -3193,7 +3880,7 @@
         <v>15393.94</v>
       </c>
       <c r="J40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -3213,8 +3900,23 @@
       <c r="P40">
         <v>0.31</v>
       </c>
+      <c r="Q40">
+        <v>2.51</v>
+      </c>
+      <c r="R40">
+        <v>47.47</v>
+      </c>
+      <c r="S40">
+        <v>14.8</v>
+      </c>
       <c r="V40" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3222,22 +3924,25 @@
       <c r="Z40">
         <v>3.035246133804321</v>
       </c>
-      <c r="AA40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>301388</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>2.2</v>
@@ -3255,7 +3960,7 @@
         <v>28948.25</v>
       </c>
       <c r="J41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K41">
         <v>9</v>
@@ -3275,8 +3980,23 @@
       <c r="P41">
         <v>-0.39</v>
       </c>
+      <c r="Q41">
+        <v>4.99</v>
+      </c>
+      <c r="R41">
+        <v>40.43</v>
+      </c>
+      <c r="S41">
+        <v>3.61</v>
+      </c>
       <c r="V41" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3284,22 +4004,25 @@
       <c r="Z41">
         <v>-0.4299403131008148</v>
       </c>
-      <c r="AA41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301389</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>0.71</v>
@@ -3317,7 +4040,7 @@
         <v>8205.690000000001</v>
       </c>
       <c r="J42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K42">
         <v>8</v>
@@ -3337,8 +4060,23 @@
       <c r="P42">
         <v>0.09</v>
       </c>
+      <c r="Q42">
+        <v>0.27</v>
+      </c>
+      <c r="R42">
+        <v>35</v>
+      </c>
+      <c r="S42">
+        <v>7.99</v>
+      </c>
       <c r="V42" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3346,22 +4084,25 @@
       <c r="Z42">
         <v>4.396081924438477</v>
       </c>
-      <c r="AA42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301511</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>0.9399999999999999</v>
@@ -3379,7 +4120,7 @@
         <v>8082.24</v>
       </c>
       <c r="J43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K43">
         <v>18</v>
@@ -3399,8 +4140,23 @@
       <c r="P43">
         <v>-0.01</v>
       </c>
+      <c r="Q43">
+        <v>-3.49</v>
+      </c>
+      <c r="R43">
+        <v>27.5</v>
+      </c>
+      <c r="S43">
+        <v>10.84</v>
+      </c>
       <c r="V43" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3408,22 +4164,25 @@
       <c r="Z43">
         <v>1.656200766563416</v>
       </c>
-      <c r="AA43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301526</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>-1.03</v>
@@ -3441,7 +4200,7 @@
         <v>13548.66</v>
       </c>
       <c r="J44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K44">
         <v>8</v>
@@ -3461,8 +4220,23 @@
       <c r="P44">
         <v>-0.17</v>
       </c>
+      <c r="Q44">
+        <v>-1</v>
+      </c>
+      <c r="R44">
+        <v>5.15</v>
+      </c>
+      <c r="S44">
+        <v>7.52</v>
+      </c>
       <c r="V44" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3470,22 +4244,25 @@
       <c r="Z44">
         <v>4.13787317276001</v>
       </c>
-      <c r="AA44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>688117</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>0.51</v>
@@ -3503,7 +4280,7 @@
         <v>8790.799999999999</v>
       </c>
       <c r="J45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -3523,8 +4300,23 @@
       <c r="P45">
         <v>-0.11</v>
       </c>
+      <c r="Q45">
+        <v>7.76</v>
+      </c>
+      <c r="R45">
+        <v>43.19</v>
+      </c>
+      <c r="S45">
+        <v>8.93</v>
+      </c>
       <c r="V45" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
       </c>
       <c r="Y45">
         <v>1</v>
@@ -3532,22 +4324,25 @@
       <c r="Z45">
         <v>7.973374843597412</v>
       </c>
-      <c r="AA45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>688202</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>0.97</v>
@@ -3565,7 +4360,7 @@
         <v>12334.14</v>
       </c>
       <c r="J46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K46">
         <v>8</v>
@@ -3585,8 +4380,23 @@
       <c r="P46">
         <v>0.14</v>
       </c>
+      <c r="Q46">
+        <v>1.8</v>
+      </c>
+      <c r="R46">
+        <v>62.79</v>
+      </c>
+      <c r="S46">
+        <v>25.98</v>
+      </c>
       <c r="V46" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3594,22 +4404,25 @@
       <c r="Z46">
         <v>0.5689417123794556</v>
       </c>
-      <c r="AA46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>688221</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>1.19</v>
@@ -3627,7 +4440,7 @@
         <v>17624.16</v>
       </c>
       <c r="J47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K47">
         <v>9</v>
@@ -3647,8 +4460,23 @@
       <c r="P47">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q47">
+        <v>4.34</v>
+      </c>
+      <c r="R47">
+        <v>21.79</v>
+      </c>
+      <c r="S47">
+        <v>11.34</v>
+      </c>
       <c r="V47" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3656,22 +4484,25 @@
       <c r="Z47">
         <v>1.112313032150269</v>
       </c>
-      <c r="AA47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>688313</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>2.53</v>
@@ -3689,7 +4520,7 @@
         <v>42726.95</v>
       </c>
       <c r="J48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K48">
         <v>22</v>
@@ -3709,8 +4540,23 @@
       <c r="P48">
         <v>-0.03</v>
       </c>
+      <c r="Q48">
+        <v>2.43</v>
+      </c>
+      <c r="R48">
+        <v>55.55</v>
+      </c>
+      <c r="S48">
+        <v>15.25</v>
+      </c>
       <c r="V48" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3718,22 +4564,25 @@
       <c r="Z48">
         <v>5.341212272644043</v>
       </c>
-      <c r="AA48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>688317</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>-0.76</v>
@@ -3751,7 +4600,7 @@
         <v>7583.74</v>
       </c>
       <c r="J49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -3771,8 +4620,23 @@
       <c r="P49">
         <v>-0.08</v>
       </c>
+      <c r="Q49">
+        <v>-7.07</v>
+      </c>
+      <c r="R49">
+        <v>24.35</v>
+      </c>
+      <c r="S49">
+        <v>3.75</v>
+      </c>
       <c r="V49" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3780,22 +4644,25 @@
       <c r="Z49">
         <v>4.79935359954834</v>
       </c>
-      <c r="AA49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>688668</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>1.03</v>
@@ -3813,7 +4680,7 @@
         <v>21326.15</v>
       </c>
       <c r="J50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3833,8 +4700,23 @@
       <c r="P50">
         <v>-0.05</v>
       </c>
+      <c r="Q50">
+        <v>-0.77</v>
+      </c>
+      <c r="R50">
+        <v>73.73</v>
+      </c>
+      <c r="S50">
+        <v>4.17</v>
+      </c>
       <c r="V50" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>1</v>
@@ -3842,8 +4724,11 @@
       <c r="Z50">
         <v>7.628331184387207</v>
       </c>
-      <c r="AA50" t="s">
-        <v>115</v>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
